--- a/datos_dropcontrol/2025-07-30.xlsx
+++ b/datos_dropcontrol/2025-07-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,7 +491,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45868.37526381182</v>
+        <v>45868</v>
       </c>
       <c r="B2" t="n">
         <v>2025</v>
@@ -500,20 +500,20 @@
         <v>31</v>
       </c>
       <c r="D2" t="n">
-        <v>16.72</v>
+        <v>13.81</v>
       </c>
       <c r="E2" t="n">
-        <v>85.27</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>358.59</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7.73</v>
+        <v>1.27</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>SW</t>
+          <t>E</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -522,6 +522,362 @@
       <c r="J2" t="inlineStr">
         <is>
           <t>09:00:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45868.04166666666</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C3" t="n">
+        <v>31</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.32</v>
+      </c>
+      <c r="E3" t="n">
+        <v>89.15000000000001</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>ONO</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45868.08333333334</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C4" t="n">
+        <v>31</v>
+      </c>
+      <c r="D4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>80.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>ONO</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45868.125</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C5" t="n">
+        <v>31</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.14</v>
+      </c>
+      <c r="E5" t="n">
+        <v>87</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45868.16666666666</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C6" t="n">
+        <v>31</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.42</v>
+      </c>
+      <c r="E6" t="n">
+        <v>91.67</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45868.20833333334</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C7" t="n">
+        <v>31</v>
+      </c>
+      <c r="D7" t="n">
+        <v>13.36</v>
+      </c>
+      <c r="E7" t="n">
+        <v>92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NNE</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45868.25</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C8" t="n">
+        <v>31</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13.32</v>
+      </c>
+      <c r="E8" t="n">
+        <v>92.16</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>OSO</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45868.29166666666</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13.61</v>
+      </c>
+      <c r="E9" t="n">
+        <v>92.37</v>
+      </c>
+      <c r="F9" t="n">
+        <v>94.92</v>
+      </c>
+      <c r="G9" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45868.33333333334</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C10" t="n">
+        <v>31</v>
+      </c>
+      <c r="D10" t="n">
+        <v>15.64</v>
+      </c>
+      <c r="E10" t="n">
+        <v>90.25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>285.64</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>SSO</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45868.375</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C11" t="n">
+        <v>31</v>
+      </c>
+      <c r="D11" t="n">
+        <v>17.6</v>
+      </c>
+      <c r="E11" t="n">
+        <v>81.20999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>430.22</v>
+      </c>
+      <c r="G11" t="n">
+        <v>8.81</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45868.41666666666</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C12" t="n">
+        <v>31</v>
+      </c>
+      <c r="D12" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="E12" t="n">
+        <v>78.59999999999999</v>
+      </c>
+      <c r="F12" t="n">
+        <v>517.6799999999999</v>
+      </c>
+      <c r="G12" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45868.50022139786</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C13" t="n">
+        <v>31</v>
+      </c>
+      <c r="D13" t="n">
+        <v>21.06</v>
+      </c>
+      <c r="E13" t="n">
+        <v>72.01000000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>627.54</v>
+      </c>
+      <c r="G13" t="n">
+        <v>9.140000000000001</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>12:00:19</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-30.xlsx
+++ b/datos_dropcontrol/2025-07-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -847,7 +847,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45868.50022139786</v>
+        <v>45868.50022140046</v>
       </c>
       <c r="B13" t="n">
         <v>2025</v>
@@ -878,6 +878,42 @@
       <c r="J13" t="inlineStr">
         <is>
           <t>12:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45868.54185007951</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C14" t="n">
+        <v>31</v>
+      </c>
+      <c r="D14" t="n">
+        <v>23.44</v>
+      </c>
+      <c r="E14" t="n">
+        <v>66.22</v>
+      </c>
+      <c r="F14" t="n">
+        <v>613.48</v>
+      </c>
+      <c r="G14" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>13:00:15</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-30.xlsx
+++ b/datos_dropcontrol/2025-07-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -883,7 +883,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45868.54185007951</v>
+        <v>45868.54185008102</v>
       </c>
       <c r="B14" t="n">
         <v>2025</v>
@@ -914,6 +914,42 @@
       <c r="J14" t="inlineStr">
         <is>
           <t>13:00:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45868.66690025864</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C15" t="n">
+        <v>31</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21.67</v>
+      </c>
+      <c r="E15" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="F15" t="n">
+        <v>286.52</v>
+      </c>
+      <c r="G15" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>16:00:20</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-30.xlsx
+++ b/datos_dropcontrol/2025-07-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45868.66690025864</v>
+        <v>45868.66690025463</v>
       </c>
       <c r="B15" t="n">
         <v>2025</v>
@@ -950,6 +950,42 @@
       <c r="J15" t="inlineStr">
         <is>
           <t>16:00:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45868.70855332787</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C16" t="n">
+        <v>31</v>
+      </c>
+      <c r="D16" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="E16" t="n">
+        <v>78.18000000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>114.26</v>
+      </c>
+      <c r="G16" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>17:00:19</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-30.xlsx
+++ b/datos_dropcontrol/2025-07-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -955,7 +955,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45868.70855332787</v>
+        <v>45868.70855333333</v>
       </c>
       <c r="B16" t="n">
         <v>2025</v>
@@ -986,6 +986,42 @@
       <c r="J16" t="inlineStr">
         <is>
           <t>17:00:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45868.75023297059</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C17" t="n">
+        <v>31</v>
+      </c>
+      <c r="D17" t="n">
+        <v>15.56</v>
+      </c>
+      <c r="E17" t="n">
+        <v>87.05</v>
+      </c>
+      <c r="F17" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="G17" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>ESE</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>18:00:20</t>
         </is>
       </c>
     </row>

--- a/datos_dropcontrol/2025-07-30.xlsx
+++ b/datos_dropcontrol/2025-07-30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\mi-app-humedad\datos_dropcontrol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AF0705-E9D8-439A-BE0B-490B03E9ED97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF49AA87-7657-4608-9CD8-E075812235C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="10125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,7 +96,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -153,7 +153,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +459,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,7 +835,7 @@
         <v>74.599999999999994</v>
       </c>
       <c r="E13">
-        <v>9.44</v>
+        <v>79.44</v>
       </c>
       <c r="F13">
         <v>613.48</v>
